--- a/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
+++ b/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Classifier</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>{'clf__kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>GradientBoostingClassifier</t>
+  </si>
+  <si>
+    <t>{'clf__n_estimators': 500}</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -502,137 +508,148 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.80342240975152301</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>0.78877707285057896</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.78743553680262501</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>0.760314111579934</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>0.78743553680262501</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>0.759657759024847</v>
+        <v>0.760314111579934</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>0.750164088138771</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>0.759657759024847</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>0.69470229723394195</v>
+        <v>0.75574308485700803</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.67674636661978405</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>0.750164088138771</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>0.67458977965306999</v>
+        <v>0.69470229723394195</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
-        <v>0.59957805907173001</v>
+        <v>0.67674636661978405</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>0.40787623066104001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>0.67458977965306999</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>0.29238678626121201</v>
+        <v>0.59957805907173001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>0.75574308485700803</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>0.40787623066104001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.29238678626121201</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C12">
-    <sortCondition descending="1" ref="B2:B12"/>
+  <sortState ref="A2:C14">
+    <sortCondition descending="1" ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
+++ b/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Classifier</t>
   </si>
@@ -103,13 +103,58 @@
   </si>
   <si>
     <t>{'clf__n_estimators': 500}</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier_PCA</t>
+  </si>
+  <si>
+    <t>{'clf__max_depth': 10, 'clf__n_estimators': 500, 'pca__n_components': 50}</t>
+  </si>
+  <si>
+    <t>MLPClassifier_PCA</t>
+  </si>
+  <si>
+    <t>{'clf__hidden_layer_sizes': (25, 11, 7, 5, 3), 'pca__n_components': 150}</t>
+  </si>
+  <si>
+    <t>LogisticRegression_PCA</t>
+  </si>
+  <si>
+    <t>{'clf__fit_intercept': True, 'pca__n_components': 100}</t>
+  </si>
+  <si>
+    <t>LinearSVC_PCA</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier_PCA</t>
+  </si>
+  <si>
+    <t>{'clf__algorithm': 'kd_tree', 'clf__n_neighbors': 15, 'pca__n_components': 50}</t>
+  </si>
+  <si>
+    <t>LinearDiscriminantAnalysis_PCA</t>
+  </si>
+  <si>
+    <t>{'clf__solver': 'lsqr', 'pca__n_components': 100}</t>
+  </si>
+  <si>
+    <t>GaussianNB_PCA</t>
+  </si>
+  <si>
+    <t>{'pca__n_components': 50}</t>
+  </si>
+  <si>
+    <t>RidgeClassifier_PCA</t>
+  </si>
+  <si>
+    <t>{'clf__solver': 'sag', 'pca__n_components': 100}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +166,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,8 +201,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -153,7 +222,15 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -542,116 +619,205 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
-        <v>0.760314111579934</v>
+        <v>0.76521331458040298</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>0.759657759024847</v>
+        <v>0.760314111579934</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>0.75574308485700803</v>
+        <v>0.759657759024847</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
-        <v>0.750164088138771</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>0.75574308485700803</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
-        <v>0.69470229723394195</v>
+        <v>0.75527426160337496</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3">
-        <v>0.67674636661978405</v>
+        <v>0.75358649789029497</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>0.67458977965306999</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>0.750164088138771</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="A12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="3">
-        <v>0.59957805907173001</v>
+        <v>0.71401781528363795</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
-        <v>0.40787623066104001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>0.70961087669948397</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.69470229723394195</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.68469292076887001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.67674636661978405</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.67458977965306999</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.66858884200656299</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.59957805907173001</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.57733239568682604</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.40787623066104001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B22" s="3">
         <v>0.29238678626121201</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C14">
-    <sortCondition descending="1" ref="B2:B14"/>
+  <sortState ref="A2:C22">
+    <sortCondition descending="1" ref="B2:B22"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
+++ b/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Classifier</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>{'clf__solver': 'sag', 'pca__n_components': 100}</t>
+  </si>
+  <si>
+    <t>XGBClassifier</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -810,6 +813,14 @@
       </c>
       <c r="B22" s="3">
         <v>0.29238678626121201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
+++ b/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Classifier</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>{'clf__max_depth': 10, 'clf__n_estimators': 200, 'clf__objective': 'multi:softmax'}</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -589,243 +592,246 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.816455696202531</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>0.80342240975152301</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>0.78877707285057896</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.78743553680262501</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.76521331458040298</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>0.78743553680262501</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
-        <v>0.760314111579934</v>
+        <v>0.76521331458040298</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>0.759657759024847</v>
+        <v>0.760314111579934</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>0.75574308485700803</v>
+        <v>0.759657759024847</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
-        <v>0.75527426160337496</v>
+        <v>0.75574308485700803</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
-        <v>0.75358649789029497</v>
+        <v>0.75527426160337496</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.75358649789029497</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>0.750164088138771</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>0.71401781528363795</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.70961087669948397</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3">
-        <v>0.69470229723394195</v>
+        <v>0.70961087669948397</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>0.68469292076887001</v>
+        <v>0.69470229723394195</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
-        <v>0.67674636661978405</v>
+        <v>0.68469292076887001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>0.67458977965306999</v>
+        <v>0.67674636661978405</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>0.66858884200656299</v>
+        <v>0.67458977965306999</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3">
-        <v>0.59957805907173001</v>
+        <v>0.66858884200656299</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>0.57733239568682604</v>
+        <v>0.59957805907173001</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3">
-        <v>0.40787623066104001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
+        <v>0.57733239568682604</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>0.29238678626121201</v>
+        <v>0.40787623066104001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3">
-        <v>0.82</v>
+        <v>0.29238678626121201</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C22">
-    <sortCondition descending="1" ref="B2:B22"/>
+  <sortState ref="A2:C23">
+    <sortCondition descending="1" ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
+++ b/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Classifier</t>
   </si>
@@ -154,13 +154,25 @@
   </si>
   <si>
     <t>{'clf__max_depth': 10, 'clf__n_estimators': 200, 'clf__objective': 'multi:softmax'}</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Use Dummy Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +201,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,8 +236,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,16 +250,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,20 +594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,43 +616,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="3">
         <v>0.816455696202531</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>0.80342240975152301</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>0.78877707285057896</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -631,76 +672,97 @@
         <v>0.78743553680262501</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>0.76521331458040298</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>0.760314111579934</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>0.759657759024847</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3">
         <v>0.75574308485700803</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0.75527426160337496</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3">
         <v>0.75358649789029497</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -708,109 +770,139 @@
         <v>0.750164088138771</v>
       </c>
       <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3">
         <v>0.71401781528363795</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="3">
         <v>0.70961087669948397</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>0.69470229723394195</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>0.68469292076887001</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3">
         <v>0.67674636661978405</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3">
         <v>0.67458977965306999</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3">
         <v>0.66858884200656299</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>0.59957805907173001</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="3">
         <v>0.57733239568682604</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -818,15 +910,21 @@
         <v>0.40787623066104001</v>
       </c>
       <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="3">
         <v>0.29238678626121201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
+++ b/capstone/projects/capstone1_Sberbank/ClassifierAccuracy.xlsx
@@ -165,7 +165,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Use Dummy Variables</t>
+    <t>Uses Dummy Variables</t>
   </si>
 </sst>
 </file>
@@ -597,14 +597,14 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="66.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
